--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.5_Student_Q_Sheet.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_Comprehensive Problem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65692F-8CAF-4681-B165-3469A659D0EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" activeTab="1" xr2:uid="{B644809C-C8D3-4B78-AA8F-1E46C5673A31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
     <sheet name="Retained Earnings Statement" sheetId="2" r:id="rId2"/>
     <sheet name="Balance Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -729,11 +728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C1CDE-8E64-4D55-8079-E3566D69232C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66578CD9-C067-47B9-8CBD-DF9DB7911E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C7FEF-0E0C-4E73-85B3-4B62A75A68FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
